--- a/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_BPF_Board_BOM_V12.6_05-01-24.xlsx
+++ b/T41_V012_Files_01-15-24/T41_V012_BOMs/T41_BPF_Board_BOM_V12.6_05-01-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dad\Documents\GitHub\T41\T41_V012_Files_01-15-24\T41_V012_BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17715D9F-D4A6-4512-BACC-3E49F5AE0880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA38165D-0411-4AA5-A761-21EFB63E6C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BPF BOM" sheetId="1" r:id="rId1"/>
     <sheet name="BPF Coil Design" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -72,9 +72,6 @@
     <t>667-ECA-1EM471</t>
   </si>
   <si>
-    <t>C2, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C27 C41, C91, C92, C97, C98, C100, C101,C107, C108, C190, C191, C197, C198, C200, C201, C207, C208, C290, C291, C297, C298, C300, C301, C307, C308, C400, C401, C407, C408, C500, C501, C507, C508, C600, C601, C607, C608, C700, C701</t>
-  </si>
-  <si>
     <t>0.1uF 50V SMD 1206 Capacitor</t>
   </si>
   <si>
@@ -805,6 +802,9 @@
   </si>
   <si>
     <t>*** Use 22nH precision 1206 inductor if 24nH is not available</t>
+  </si>
+  <si>
+    <t>C2, C4, C5, C6, C7, C8, C9, C10, C11, C12, C13, C14, C15, C16, C17, C18, C19, C20, C21, C22, C23, C24, C25, C26, C27 C41, C90, C91, C97, C98, C100, C101,C107, C108, C190, C191, C197, C198, C200, C201, C207, C208, C290, C291, C297, C298, C300, C301, C307, C308, C400, C401, C407, C408, C500, C501, C507, C508, C600, C601, C607, C608, C700, C701</t>
   </si>
 </sst>
 </file>
@@ -1422,8 +1422,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1484,24 +1484,24 @@
         <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -1509,24 +1509,24 @@
         <v>1</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -1534,24 +1534,24 @@
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -1559,13 +1559,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -1573,24 +1573,24 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
@@ -1598,13 +1598,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -1612,13 +1612,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -1626,13 +1626,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
@@ -1640,13 +1640,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
@@ -1654,13 +1654,13 @@
         <v>2</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -1668,13 +1668,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -1682,24 +1682,24 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
@@ -1707,13 +1707,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
@@ -1721,27 +1721,27 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
@@ -1749,13 +1749,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
@@ -1763,13 +1763,13 @@
         <v>4</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
@@ -1777,13 +1777,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
@@ -1791,13 +1791,13 @@
         <v>2</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
@@ -1805,24 +1805,24 @@
         <v>1</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -1830,13 +1830,13 @@
         <v>3</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
@@ -1844,13 +1844,13 @@
         <v>2</v>
       </c>
       <c r="B30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
@@ -1858,13 +1858,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
@@ -1872,13 +1872,13 @@
         <v>4</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -1886,13 +1886,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
@@ -1900,13 +1900,13 @@
         <v>2</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
@@ -1914,13 +1914,13 @@
         <v>2</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
@@ -1928,13 +1928,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
@@ -1942,13 +1942,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -1956,13 +1956,13 @@
         <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
@@ -1970,13 +1970,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -1984,13 +1984,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -1998,13 +1998,13 @@
         <v>1</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2012,13 +2012,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2026,13 +2026,13 @@
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2040,13 +2040,13 @@
         <v>2</v>
       </c>
       <c r="B44" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
@@ -2054,13 +2054,13 @@
         <v>2</v>
       </c>
       <c r="B45" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="G45" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2068,13 +2068,13 @@
         <v>2</v>
       </c>
       <c r="B46" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -2082,13 +2082,13 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="G47" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2096,13 +2096,13 @@
         <v>2</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="G48" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2110,13 +2110,13 @@
         <v>2</v>
       </c>
       <c r="B49" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="G49" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2124,13 +2124,13 @@
         <v>2</v>
       </c>
       <c r="B50" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2138,13 +2138,13 @@
         <v>3</v>
       </c>
       <c r="B51" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -2152,13 +2152,13 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -2166,13 +2166,13 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="G53" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -2180,13 +2180,13 @@
         <v>2</v>
       </c>
       <c r="B54" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -2194,13 +2194,13 @@
         <v>3</v>
       </c>
       <c r="B55" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="G55" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -2208,13 +2208,13 @@
         <v>1</v>
       </c>
       <c r="B56" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="G56" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2222,13 +2222,13 @@
         <v>1</v>
       </c>
       <c r="B57" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="G57" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -2236,13 +2236,13 @@
         <v>2</v>
       </c>
       <c r="B58" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -2250,13 +2250,13 @@
         <v>2</v>
       </c>
       <c r="B59" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -2264,13 +2264,13 @@
         <v>2</v>
       </c>
       <c r="B60" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -2278,13 +2278,13 @@
         <v>1</v>
       </c>
       <c r="B61" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>179</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2292,13 +2292,13 @@
         <v>3</v>
       </c>
       <c r="B62" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="G62" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -2306,13 +2306,13 @@
         <v>2</v>
       </c>
       <c r="B63" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -2320,13 +2320,13 @@
         <v>2</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
@@ -2334,16 +2334,16 @@
         <v>1</v>
       </c>
       <c r="B65" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="H65" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
@@ -2351,13 +2351,13 @@
         <v>8</v>
       </c>
       <c r="B66" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
@@ -2365,13 +2365,13 @@
         <v>1</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
@@ -2379,13 +2379,13 @@
         <v>1</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="62" x14ac:dyDescent="0.35">
@@ -2393,13 +2393,13 @@
         <v>21</v>
       </c>
       <c r="B69" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="31" x14ac:dyDescent="0.35">
@@ -2407,13 +2407,13 @@
         <v>11</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
@@ -2421,10 +2421,10 @@
         <v>19</v>
       </c>
       <c r="C71" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G71" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
@@ -2432,10 +2432,10 @@
         <v>6</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
@@ -2443,10 +2443,10 @@
         <v>1</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
@@ -2454,10 +2454,10 @@
         <v>4</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
@@ -2465,10 +2465,10 @@
         <v>13</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
@@ -2476,10 +2476,10 @@
         <v>2</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
@@ -2487,15 +2487,15 @@
         <v>1</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="5" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="5" scale="75" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2531,114 +2531,114 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="B1" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>216</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="G1" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="N1" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="P1" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>227</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="R1" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="S1" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="T1" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="V1" s="15" t="s">
         <v>232</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>233</v>
       </c>
       <c r="W1" s="13"/>
       <c r="X1" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y1" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Z1" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="Z1" s="11" t="s">
-        <v>236</v>
-      </c>
       <c r="AA1" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AB1" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AC1" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AD1" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AE1" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF1" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG1" s="13"/>
       <c r="AH1" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI1" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AM1" s="11" t="s">
         <v>240</v>
-      </c>
-      <c r="AM1" s="11" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="14">
@@ -2694,13 +2694,13 @@
       </c>
       <c r="W2" s="13"/>
       <c r="X2" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z2" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="Z2" s="11" t="s">
-        <v>244</v>
       </c>
       <c r="AA2" s="14">
         <v>0.49</v>
@@ -2723,24 +2723,24 @@
       </c>
       <c r="AG2" s="13"/>
       <c r="AH2" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI2" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="AI2" s="11" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="AJ2" s="11" t="s">
+      <c r="AL2" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM2" s="11" t="s">
         <v>247</v>
-      </c>
-      <c r="AL2" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="AM2" s="11" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E3" s="13"/>
       <c r="F3" s="11">
@@ -2787,12 +2787,12 @@
         <v>0.52</v>
       </c>
       <c r="AJ3" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E4" s="13"/>
       <c r="F4" s="11">
@@ -2842,16 +2842,16 @@
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="20">
@@ -2955,7 +2955,7 @@
         <v>4</v>
       </c>
       <c r="AL6" s="14" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM6" s="11">
         <v>19</v>
@@ -2966,10 +2966,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E7" s="19"/>
       <c r="F7" s="20">
@@ -3073,7 +3073,7 @@
         <v>10</v>
       </c>
       <c r="AL7" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AM7" s="11">
         <v>6</v>
@@ -3084,10 +3084,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="20">
@@ -3191,7 +3191,7 @@
         <v>14</v>
       </c>
       <c r="AL8" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AM8" s="11">
         <v>1</v>
@@ -3202,10 +3202,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E9" s="19"/>
       <c r="F9" s="20">
@@ -3309,7 +3309,7 @@
         <v>27</v>
       </c>
       <c r="AL9" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AM9" s="11">
         <v>4</v>
@@ -3320,10 +3320,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E10" s="19"/>
       <c r="F10" s="20">
@@ -3427,7 +3427,7 @@
         <v>9</v>
       </c>
       <c r="AL10" s="14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AM10" s="11">
         <v>13</v>
@@ -3438,10 +3438,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="20">
@@ -3545,7 +3545,7 @@
         <v>18</v>
       </c>
       <c r="AL11" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AM11" s="11">
         <v>2</v>
@@ -3556,10 +3556,10 @@
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12" s="19"/>
       <c r="F12" s="21">
@@ -3672,10 +3672,10 @@
         <v>2</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="21">
@@ -3784,10 +3784,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="21">
@@ -3874,10 +3874,10 @@
         <v>331.24</v>
       </c>
       <c r="AB14" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC14" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD14" s="22"/>
       <c r="AE14" s="22"/>
@@ -3900,10 +3900,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="21">
@@ -3986,10 +3986,10 @@
         <v>10</v>
       </c>
       <c r="AA15" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB15" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC15" s="24">
         <f>$Z15*$Z15*AC$2</f>
@@ -4016,10 +4016,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="21">
@@ -4106,10 +4106,10 @@
         <v>566.43999999999994</v>
       </c>
       <c r="AB16" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC16" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD16" s="22"/>
       <c r="AE16" s="22"/>
@@ -4132,10 +4132,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="21">
@@ -4218,14 +4218,14 @@
         <v>17</v>
       </c>
       <c r="AA17" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB17" s="24">
         <f>$Z17*$Z17*AB$2</f>
         <v>722.5</v>
       </c>
       <c r="AC17" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD17" s="22"/>
       <c r="AE17" s="22"/>
@@ -4248,10 +4248,10 @@
         <v>2</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="21">
@@ -4357,10 +4357,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="21">
@@ -4443,14 +4443,14 @@
         <v>18</v>
       </c>
       <c r="AA19" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB19" s="24">
         <f>$Z19*$Z19*AB$2</f>
         <v>810</v>
       </c>
       <c r="AC19" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD19" s="22"/>
       <c r="AE19" s="22"/>
@@ -4472,10 +4472,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="21">
@@ -4579,10 +4579,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="21">
@@ -4686,10 +4686,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="21">
@@ -4772,13 +4772,13 @@
         <v>26</v>
       </c>
       <c r="AA22" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB22" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC22" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD22" s="24">
         <f>$Z22*$Z22*AD$2</f>
@@ -4802,10 +4802,10 @@
         <v>2</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="21">
@@ -4888,13 +4888,13 @@
         <v>27</v>
       </c>
       <c r="AA23" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB23" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC23" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD23" s="24">
         <f>$Z23*$Z23*AD$2</f>
@@ -4920,10 +4920,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E24" s="19"/>
       <c r="F24" s="21">
@@ -5006,17 +5006,17 @@
         <v>38</v>
       </c>
       <c r="AA24" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB24" s="24">
         <f>$Z24*$Z24*AB$2</f>
         <v>3610</v>
       </c>
       <c r="AC24" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD24" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE24" s="22"/>
       <c r="AG24" s="19"/>
@@ -5037,10 +5037,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="21">
@@ -5123,23 +5123,23 @@
         <v>22</v>
       </c>
       <c r="AA25" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB25" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC25" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD25" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE25" s="24">
         <f>$Z25*$Z25*AE$2</f>
         <v>3872</v>
       </c>
       <c r="AF25" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG25" s="19"/>
       <c r="AH25" s="25">
@@ -5159,10 +5159,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E26" s="19"/>
       <c r="F26" s="21">
@@ -5245,23 +5245,23 @@
         <v>25</v>
       </c>
       <c r="AA26" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB26" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC26" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD26" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE26" s="24">
         <f>$Z26*$Z26*AE$2</f>
         <v>5000</v>
       </c>
       <c r="AF26" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG26" s="19"/>
       <c r="AH26" s="25">
@@ -5282,10 +5282,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E27" s="19"/>
       <c r="F27" s="21">
@@ -5368,23 +5368,23 @@
         <v>26</v>
       </c>
       <c r="AA27" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB27" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC27" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD27" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE27" s="24">
         <f>$Z27*$Z27*AE$2</f>
         <v>5408</v>
       </c>
       <c r="AF27" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG27" s="19"/>
       <c r="AH27" s="25">
@@ -5404,10 +5404,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E28" s="19"/>
       <c r="F28" s="21">
@@ -5490,19 +5490,19 @@
         <v>14</v>
       </c>
       <c r="AA28" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB28" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC28" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD28" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE28" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF28" s="24">
         <f>$Z28*$Z28*AF$2</f>
@@ -5523,16 +5523,16 @@
     </row>
     <row r="29" spans="2:39" x14ac:dyDescent="0.35">
       <c r="F29" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="2:39" x14ac:dyDescent="0.35">
@@ -5541,21 +5541,21 @@
         <v>45</v>
       </c>
       <c r="Z30" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ30" s="21">
         <f>SUM(AJ6:AJ28)</f>
         <v>511.08</v>
       </c>
       <c r="AK30" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AL30" s="21">
         <f>AJ30/12</f>
         <v>42.589999999999996</v>
       </c>
       <c r="AM30" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
